--- a/Web/files/K- ELM forecasting/FORECAST KELM.xlsx
+++ b/Web/files/K- ELM forecasting/FORECAST KELM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OBIE\Tel - U\SEM 7\PTA\BISMILLAH\Code\TA_COBA_KELM1\Forecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Kuliah\TA\Projek-Capstone-Design\Web\files\K- ELM forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DDAC02B-D3EC-4960-8431-8B1D695D014F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7A2442-8563-40C0-92FF-7060BC34E9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{BB73DEA3-1E0D-4EBD-B5E8-0873A55B2E9B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{BB73DEA3-1E0D-4EBD-B5E8-0873A55B2E9B}"/>
   </bookViews>
   <sheets>
     <sheet name="DKI1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="42">
   <si>
     <t>Tanggal</t>
   </si>
@@ -113,15 +113,6 @@
       </rPr>
       <t>2</t>
     </r>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Critical</t>
-  </si>
-  <si>
-    <t>Kategori</t>
   </si>
   <si>
     <t>DKI1 (Bunderan HI)</t>
@@ -264,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -287,33 +278,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,27 +602,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C19429-CC80-44F3-98AF-046F5F38A06E}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G31"/>
+      <selection activeCell="H1" sqref="H1:J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,22 +644,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C2" s="2">
         <v>62.195121951220003</v>
@@ -702,16 +667,13 @@
       <c r="G2" s="2">
         <v>14.827418570735</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
         <v>64.634146341462994</v>
@@ -729,12 +691,12 @@
         <v>14.827418570735</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2">
         <v>67.073170731706995</v>
@@ -752,12 +714,12 @@
         <v>14.827418570735</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
         <v>68.292682926829002</v>
@@ -775,12 +737,12 @@
         <v>14.827418570735</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
         <v>67.073170731706995</v>
@@ -798,12 +760,12 @@
         <v>14.827418570735</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
         <v>63.414634146341001</v>
@@ -821,12 +783,12 @@
         <v>15.128205128205</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2">
         <v>59.756097560976002</v>
@@ -844,12 +806,12 @@
         <v>15.128205128205</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2">
         <v>54.878048780488001</v>
@@ -867,12 +829,12 @@
         <v>15.128205128205</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2">
         <v>52.439024390244008</v>
@@ -890,12 +852,12 @@
         <v>15.128205128205</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2">
         <v>49.756097560976002</v>
@@ -913,12 +875,12 @@
         <v>15.128205128205</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2">
         <v>48.780487804878</v>
@@ -936,12 +898,12 @@
         <v>15.128205128205</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2">
         <v>47.560975609755999</v>
@@ -959,12 +921,12 @@
         <v>15.128205128205</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2">
         <v>47.560975609755999</v>
@@ -982,12 +944,12 @@
         <v>15.384615384615</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2">
         <v>47.560975609755999</v>
@@ -1005,12 +967,12 @@
         <v>15.384615384615</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2">
         <v>47.560975609755999</v>
@@ -1028,12 +990,12 @@
         <v>15.384615384615</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2">
         <v>47.560975609755999</v>
@@ -1051,12 +1013,12 @@
         <v>15.384615384615</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2">
         <v>47.560975609755999</v>
@@ -1074,12 +1036,12 @@
         <v>15.384615384615</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2">
         <v>47.560975609755999</v>
@@ -1097,12 +1059,12 @@
         <v>15.384615384615</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2">
         <v>47.560975609755999</v>
@@ -1120,12 +1082,12 @@
         <v>15.384615384615</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2">
         <v>47.560975609755999</v>
@@ -1143,12 +1105,12 @@
         <v>15.384615384615</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C22" s="2">
         <v>47.560975609755999</v>
@@ -1166,12 +1128,12 @@
         <v>15.384615384615</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2">
         <v>47.560975609755999</v>
@@ -1189,12 +1151,12 @@
         <v>16.666666666666998</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2">
         <v>47.560975609755999</v>
@@ -1212,12 +1174,12 @@
         <v>16.666666666666998</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C25" s="2">
         <v>47.560975609755999</v>
@@ -1235,12 +1197,12 @@
         <v>16.666666666666998</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C26" s="2">
         <v>47.560975609755999</v>
@@ -1258,12 +1220,12 @@
         <v>16.666666666666998</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C27" s="2">
         <v>47.560975609755999</v>
@@ -1281,12 +1243,12 @@
         <v>16.666666666666998</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C28" s="2">
         <v>47.560975609755999</v>
@@ -1304,12 +1266,12 @@
         <v>16.666666666666998</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C29" s="2">
         <v>47.560975609755999</v>
@@ -1327,12 +1289,12 @@
         <v>16.666666666666998</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C30" s="2">
         <v>47.560975609755999</v>
@@ -1350,12 +1312,12 @@
         <v>16.666666666666998</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C31" s="2">
         <v>47.560975609755999</v>
@@ -1380,27 +1342,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD565E2-3206-42F9-8451-445E9EE0A831}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G31"/>
+      <selection activeCell="H1" sqref="H1:J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1422,22 +1384,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>49.441105938779003</v>
@@ -1454,16 +1407,13 @@
       <c r="G2" s="2">
         <v>11.643835616438</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
         <v>49.441105938779003</v>
@@ -1481,12 +1431,12 @@
         <v>11.917808219177999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2">
         <v>49.441105938779003</v>
@@ -1504,12 +1454,12 @@
         <v>12.328767123287999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2">
         <v>49.441105938779003</v>
@@ -1527,12 +1477,12 @@
         <v>13.013698630137</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2">
         <v>49.411764705882</v>
@@ -1550,12 +1500,12 @@
         <v>13.698630136986001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2">
         <v>49.411764705882</v>
@@ -1573,12 +1523,12 @@
         <v>14.520547945204999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2">
         <v>49.411764705882</v>
@@ -1596,12 +1546,12 @@
         <v>15.068493150685001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2">
         <v>49.411764705882</v>
@@ -1619,12 +1569,12 @@
         <v>16.438356164384</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2">
         <v>49.411764705882</v>
@@ -1642,12 +1592,12 @@
         <v>17.671232876712001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2">
         <v>49.411764705882</v>
@@ -1665,12 +1615,12 @@
         <v>17.808219178081998</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2">
         <v>49.411764705882</v>
@@ -1688,12 +1638,12 @@
         <v>19.178082191781002</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2">
         <v>49.411764705882</v>
@@ -1711,12 +1661,12 @@
         <v>19.178082191781002</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2">
         <v>48.235294117647001</v>
@@ -1734,12 +1684,12 @@
         <v>19.315068493150999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2">
         <v>48.235294117647001</v>
@@ -1757,12 +1707,12 @@
         <v>19.315068493150999</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2">
         <v>48.235294117647001</v>
@@ -1780,12 +1730,12 @@
         <v>19.315068493150999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2">
         <v>48.235294117647001</v>
@@ -1803,12 +1753,12 @@
         <v>19.315068493150999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2">
         <v>48.235294117647001</v>
@@ -1826,12 +1776,12 @@
         <v>19.315068493150999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2">
         <v>48.235294117647001</v>
@@ -1849,12 +1799,12 @@
         <v>19.315068493150999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2">
         <v>48.235294117647001</v>
@@ -1872,12 +1822,12 @@
         <v>19.315068493150999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2">
         <v>48.235294117647001</v>
@@ -1895,12 +1845,12 @@
         <v>19.315068493150999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C22" s="2">
         <v>48.235294117647001</v>
@@ -1918,12 +1868,12 @@
         <v>19.315068493150999</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C23" s="2">
         <v>48.235294117647001</v>
@@ -1941,12 +1891,12 @@
         <v>19.315068493150999</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2">
         <v>47.058823529412003</v>
@@ -1964,12 +1914,12 @@
         <v>19.315068493150999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C25" s="2">
         <v>47.058823529412003</v>
@@ -1987,12 +1937,12 @@
         <v>19.315068493150999</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2">
         <v>47.058823529412003</v>
@@ -2010,12 +1960,12 @@
         <v>19.315068493150999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C27" s="2">
         <v>47.058823529412003</v>
@@ -2033,12 +1983,12 @@
         <v>19.315068493150999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C28" s="2">
         <v>47.058823529412003</v>
@@ -2056,12 +2006,12 @@
         <v>19.315068493150999</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="C29" s="2">
         <v>47.058823529412003</v>
@@ -2079,12 +2029,12 @@
         <v>19.315068493150999</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C30" s="2">
         <v>47.058823529412003</v>
@@ -2102,12 +2052,12 @@
         <v>19.315068493150999</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C31" s="2">
         <v>47.058823529412003</v>
@@ -2132,27 +2082,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365B949F-F8F6-4F98-A2D8-65961D005B12}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G31"/>
+      <selection activeCell="H1" sqref="H1:J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2174,22 +2124,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>33.620689655172001</v>
@@ -2206,16 +2147,13 @@
       <c r="G2" s="2">
         <v>8.4905660377357997</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2">
         <v>33.620689655172001</v>
@@ -2233,12 +2171,12 @@
         <v>8.4905660377357997</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2">
         <v>33.965517241378997</v>
@@ -2256,12 +2194,12 @@
         <v>8.4905660377357997</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2">
         <v>34.137931034483003</v>
@@ -2279,12 +2217,12 @@
         <v>8.5003687694301995</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2">
         <v>34.137931034483003</v>
@@ -2302,12 +2240,12 @@
         <v>8.5003687694301995</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2">
         <v>34.482758620689999</v>
@@ -2325,12 +2263,12 @@
         <v>8.5003687694301995</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2">
         <v>35.344827586207003</v>
@@ -2348,12 +2286,12 @@
         <v>8.5003687694301995</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2">
         <v>35.344827586207003</v>
@@ -2371,12 +2309,12 @@
         <v>8.5003687694301995</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2">
         <v>35.517241379310001</v>
@@ -2394,12 +2332,12 @@
         <v>8.5003687694301995</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2">
         <v>35.517241379310001</v>
@@ -2417,12 +2355,12 @@
         <v>8.8679245283019004</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2">
         <v>35.689655172414</v>
@@ -2440,12 +2378,12 @@
         <v>8.8679245283019004</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2">
         <v>35.689655172414</v>
@@ -2463,12 +2401,12 @@
         <v>8.8679245283019004</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2">
         <v>35.862068965516997</v>
@@ -2486,12 +2424,12 @@
         <v>8.8679245283019004</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2">
         <v>35.862068965516997</v>
@@ -2509,12 +2447,12 @@
         <v>8.8679245283019004</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2">
         <v>36.206896551724</v>
@@ -2532,12 +2470,12 @@
         <v>8.8679245283019004</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2">
         <v>36.206896551724</v>
@@ -2555,12 +2493,12 @@
         <v>8.8679245283019004</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2">
         <v>36.896551724138</v>
@@ -2578,12 +2516,12 @@
         <v>8.8679245283019004</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2">
         <v>36.896551724138</v>
@@ -2601,12 +2539,12 @@
         <v>9.4339622641508996</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2">
         <v>37.068965517240997</v>
@@ -2624,12 +2562,12 @@
         <v>9.4339622641508996</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2">
         <v>37.068965517240997</v>
@@ -2647,12 +2585,12 @@
         <v>9.4339622641508996</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2">
         <v>37.068965517240997</v>
@@ -2670,12 +2608,12 @@
         <v>9.4339622641508996</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C23" s="2">
         <v>37.931034482759003</v>
@@ -2693,12 +2631,12 @@
         <v>9.4339622641508996</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C24" s="2">
         <v>37.931034482759003</v>
@@ -2716,12 +2654,12 @@
         <v>9.4339622641508996</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C25" s="2">
         <v>37.931034482759003</v>
@@ -2739,12 +2677,12 @@
         <v>9.4339622641508996</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2">
         <v>38.275862068965999</v>
@@ -2762,12 +2700,12 @@
         <v>9.4339622641508996</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2">
         <v>38.275862068965999</v>
@@ -2785,12 +2723,12 @@
         <v>9.8113207547170003</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C28" s="2">
         <v>38.275862068965999</v>
@@ -2808,12 +2746,12 @@
         <v>9.8113207547170003</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2">
         <v>38.793103448276</v>
@@ -2831,12 +2769,12 @@
         <v>9.8113207547170003</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="C30" s="2">
         <v>38.793103448276</v>
@@ -2854,12 +2792,12 @@
         <v>9.8113207547170003</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C31" s="2">
         <v>38.793103448276</v>
@@ -2884,27 +2822,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF824F19-2391-4762-B6B8-068757AF7673}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G31"/>
+      <selection activeCell="H1" sqref="H1:J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2926,22 +2864,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
         <v>27.065868263473</v>
@@ -2958,16 +2887,13 @@
       <c r="G2" s="2">
         <v>16.037735849057</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2">
         <v>27.065868263473</v>
@@ -2985,12 +2911,12 @@
         <v>16.037735849057</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2">
         <v>28.023952095807999</v>
@@ -3008,12 +2934,12 @@
         <v>16.037735849057</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2">
         <v>29.940119760479</v>
@@ -3031,12 +2957,12 @@
         <v>16.037735849057</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2">
         <v>31.616766467066</v>
@@ -3054,12 +2980,12 @@
         <v>16.981132075472001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2">
         <v>32.335329341316999</v>
@@ -3077,12 +3003,12 @@
         <v>16.981132075472001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2">
         <v>32.574850299401</v>
@@ -3100,12 +3026,12 @@
         <v>16.981132075472001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2">
         <v>32.574850299401</v>
@@ -3123,12 +3049,12 @@
         <v>16.981132075472001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2">
         <v>31.736526946108</v>
@@ -3146,12 +3072,12 @@
         <v>16.981132075472001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2">
         <v>31.137724550898</v>
@@ -3169,12 +3095,12 @@
         <v>16.981132075472001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2">
         <v>30.419161676647001</v>
@@ -3192,12 +3118,12 @@
         <v>16.981132075472001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2">
         <v>29.221556886228001</v>
@@ -3215,12 +3141,12 @@
         <v>16.981132075472001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2">
         <v>28.143712574849999</v>
@@ -3238,12 +3164,12 @@
         <v>16.981132075472001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2">
         <v>27.784431137725001</v>
@@ -3261,12 +3187,12 @@
         <v>16.981132075472001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2">
         <v>27.664670658683001</v>
@@ -3284,12 +3210,12 @@
         <v>16.981132075472001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2">
         <v>27.544910179641001</v>
@@ -3307,12 +3233,12 @@
         <v>16.981132075472001</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2">
         <v>27.544910179641001</v>
@@ -3330,12 +3256,12 @@
         <v>16.981132075472001</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2">
         <v>27.544910179641001</v>
@@ -3353,12 +3279,12 @@
         <v>16.981132075472001</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2">
         <v>27.544910179641001</v>
@@ -3376,12 +3302,12 @@
         <v>16.981132075472001</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2">
         <v>27.544910179641001</v>
@@ -3399,12 +3325,12 @@
         <v>16.981132075472001</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2">
         <v>27.544910179641001</v>
@@ -3422,12 +3348,12 @@
         <v>17.924528301887001</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C23" s="2">
         <v>27.544910179641001</v>
@@ -3445,12 +3371,12 @@
         <v>17.924528301887001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C24" s="2">
         <v>27.544910179641001</v>
@@ -3468,12 +3394,12 @@
         <v>17.924528301887001</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C25" s="2">
         <v>27.544910179641001</v>
@@ -3491,12 +3417,12 @@
         <v>17.924528301887001</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C26" s="2">
         <v>27.544910179641001</v>
@@ -3514,12 +3440,12 @@
         <v>17.924528301887001</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C27" s="2">
         <v>27.544910179641001</v>
@@ -3537,12 +3463,12 @@
         <v>17.924528301887001</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2">
         <v>27.544910179641001</v>
@@ -3560,12 +3486,12 @@
         <v>17.924528301887001</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C29" s="2">
         <v>27.544910179641001</v>
@@ -3583,12 +3509,12 @@
         <v>17.924528301887001</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C30" s="2">
         <v>27.544910179641001</v>
@@ -3606,12 +3532,12 @@
         <v>17.924528301887001</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="C31" s="2">
         <v>27.544910179641001</v>
@@ -3636,27 +3562,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B04082-D15A-42F2-ADE6-4A4039C70C4A}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="34.5546875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3678,22 +3604,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>51.111111111110993</v>
@@ -3710,16 +3627,13 @@
       <c r="G2" s="2">
         <v>2.3880597014924998</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2">
         <v>51.111111111110993</v>
@@ -3737,12 +3651,12 @@
         <v>2.3880597014924998</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
         <v>51.111111111110993</v>
@@ -3760,12 +3674,12 @@
         <v>2.3880597014924998</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2">
         <v>51.111111111110993</v>
@@ -3783,12 +3697,12 @@
         <v>2.5373134328357998</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2">
         <v>51.111111111110993</v>
@@ -3806,12 +3720,12 @@
         <v>2.5373134328357998</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2">
         <v>51.111111111110993</v>
@@ -3829,12 +3743,12 @@
         <v>2.6865671641790998</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2">
         <v>51.111111111110993</v>
@@ -3852,12 +3766,12 @@
         <v>2.6865671641790998</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2">
         <v>51.111111111110993</v>
@@ -3875,12 +3789,12 @@
         <v>2.6865671641790998</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2">
         <v>50.888888888888992</v>
@@ -3898,12 +3812,12 @@
         <v>2.8358208955223998</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2">
         <v>50.888888888888992</v>
@@ -3921,12 +3835,12 @@
         <v>2.8358208955223998</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2">
         <v>50.888888888888992</v>
@@ -3944,12 +3858,12 @@
         <v>2.8358208955223998</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2">
         <v>50.888888888888992</v>
@@ -3967,12 +3881,12 @@
         <v>2.9850746268656998</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2">
         <v>50.888888888888992</v>
@@ -3990,12 +3904,12 @@
         <v>2.9850746268656998</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2">
         <v>50.888888888888992</v>
@@ -4013,12 +3927,12 @@
         <v>3.1343283582089998</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2">
         <v>50.888888888888992</v>
@@ -4036,12 +3950,12 @@
         <v>3.1343283582089998</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2">
         <v>50.888888888888992</v>
@@ -4059,12 +3973,12 @@
         <v>3.1343283582089998</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2">
         <v>50.888888888888992</v>
@@ -4082,12 +3996,12 @@
         <v>3.5820895522387999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2">
         <v>50.888888888888992</v>
@@ -4105,12 +4019,12 @@
         <v>3.5820895522387999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2">
         <v>50.888888888888992</v>
@@ -4128,12 +4042,12 @@
         <v>3.7313432835820999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2">
         <v>50.888888888888992</v>
@@ -4151,12 +4065,12 @@
         <v>3.7313432835820999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2">
         <v>50.888888888888992</v>
@@ -4174,12 +4088,12 @@
         <v>3.7313432835820999</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2">
         <v>50.888888888888992</v>
@@ -4197,12 +4111,12 @@
         <v>3.8805970149253999</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2">
         <v>50.888888888888992</v>
@@ -4220,12 +4134,12 @@
         <v>3.8805970149253999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C25" s="2">
         <v>50.888888888888992</v>
@@ -4243,12 +4157,12 @@
         <v>3.8805970149253999</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C26" s="2">
         <v>50.888888888888992</v>
@@ -4266,12 +4180,12 @@
         <v>4.1791044776119</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C27" s="2">
         <v>50.888888888888992</v>
@@ -4289,12 +4203,12 @@
         <v>4.1791044776119</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C28" s="2">
         <v>50.888888888888992</v>
@@ -4312,12 +4226,12 @@
         <v>4.1791044776119</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2">
         <v>50.888888888888992</v>
@@ -4335,12 +4249,12 @@
         <v>4.3283582089552004</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C30" s="2">
         <v>50.888888888888992</v>
@@ -4358,12 +4272,12 @@
         <v>4.3283582089552004</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2">
         <v>50.888888888888992</v>
